--- a/words_sample.xlsx
+++ b/words_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahamiraslani/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahamiraslani/Documents/GitHub/Unique-words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6208C89E-E16C-284D-80BD-B56B7C4A3BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46518565-11EC-204A-9DEB-91695C1D22F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{9B7045DB-4D42-0043-B04C-083DE51AEDF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9B7045DB-4D42-0043-B04C-083DE51AEDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2611,36 +2611,12 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -2726,22 +2702,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3058,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2F4489-EF64-A141-9283-7F98749648E6}">
   <dimension ref="A1:A703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3434,7 +3406,7 @@
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3559,17 +3531,17 @@
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" thickBot="1">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3709,7 +3681,7 @@
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3814,12 +3786,12 @@
       </c>
     </row>
     <row r="150" spans="1:1" ht="17" thickBot="1">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4269,1393 +4241,1393 @@
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="14"/>
+      <c r="A241" s="10"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="14"/>
+      <c r="A242" s="10"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="14"/>
+      <c r="A243" s="10"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="14"/>
+      <c r="A244" s="10"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="14"/>
+      <c r="A245" s="10"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="14"/>
+      <c r="A246" s="10"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="14"/>
+      <c r="A247" s="10"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="14"/>
+      <c r="A248" s="10"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="14"/>
+      <c r="A249" s="10"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="14"/>
+      <c r="A250" s="10"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="14"/>
+      <c r="A251" s="10"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="14"/>
+      <c r="A252" s="10"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="14"/>
+      <c r="A253" s="10"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="14"/>
+      <c r="A254" s="10"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="14"/>
+      <c r="A255" s="10"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="14"/>
+      <c r="A256" s="10"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="14"/>
+      <c r="A257" s="10"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="14"/>
+      <c r="A258" s="10"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="14"/>
+      <c r="A259" s="10"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="14"/>
+      <c r="A260" s="10"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="14"/>
+      <c r="A261" s="10"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="14"/>
+      <c r="A262" s="10"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="14"/>
+      <c r="A263" s="10"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="14"/>
+      <c r="A264" s="10"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="14"/>
+      <c r="A265" s="10"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="14"/>
+      <c r="A266" s="10"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="14"/>
+      <c r="A267" s="10"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="14"/>
+      <c r="A268" s="10"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="14"/>
+      <c r="A269" s="10"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="14"/>
+      <c r="A270" s="10"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="14"/>
+      <c r="A271" s="10"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="14"/>
+      <c r="A272" s="10"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="14"/>
+      <c r="A273" s="10"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="14"/>
+      <c r="A274" s="10"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="14"/>
+      <c r="A275" s="10"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="14"/>
+      <c r="A276" s="10"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="14"/>
+      <c r="A277" s="10"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="14"/>
+      <c r="A278" s="10"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="14"/>
+      <c r="A279" s="10"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="14"/>
+      <c r="A280" s="10"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="14"/>
+      <c r="A281" s="10"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="14"/>
+      <c r="A282" s="10"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="14"/>
+      <c r="A283" s="10"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="14"/>
+      <c r="A284" s="10"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="14"/>
+      <c r="A285" s="10"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="14"/>
+      <c r="A286" s="10"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="14"/>
+      <c r="A287" s="10"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="14"/>
+      <c r="A288" s="10"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="14"/>
+      <c r="A289" s="10"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="14"/>
+      <c r="A290" s="10"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="14"/>
+      <c r="A291" s="10"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="14"/>
+      <c r="A292" s="10"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="14"/>
+      <c r="A293" s="10"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="14"/>
+      <c r="A294" s="10"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="14"/>
+      <c r="A295" s="10"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="14"/>
+      <c r="A296" s="10"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="14"/>
+      <c r="A297" s="10"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="14"/>
+      <c r="A298" s="10"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="14"/>
+      <c r="A299" s="10"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="14"/>
+      <c r="A300" s="10"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="14"/>
+      <c r="A301" s="10"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="14"/>
+      <c r="A302" s="10"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="14"/>
+      <c r="A303" s="10"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="14"/>
+      <c r="A304" s="10"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="14"/>
+      <c r="A305" s="10"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="14"/>
+      <c r="A306" s="10"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="14"/>
+      <c r="A307" s="10"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="14"/>
+      <c r="A308" s="10"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="14"/>
+      <c r="A309" s="10"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="14"/>
+      <c r="A310" s="10"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="14"/>
+      <c r="A311" s="10"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="14"/>
+      <c r="A312" s="10"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="14"/>
+      <c r="A313" s="10"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="14"/>
+      <c r="A314" s="10"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="14"/>
+      <c r="A315" s="10"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="14"/>
+      <c r="A316" s="10"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="14"/>
+      <c r="A317" s="10"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="14"/>
+      <c r="A318" s="10"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="14"/>
+      <c r="A319" s="10"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="14"/>
+      <c r="A320" s="10"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="14"/>
+      <c r="A321" s="10"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="14"/>
+      <c r="A322" s="10"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="14"/>
+      <c r="A323" s="10"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="14"/>
+      <c r="A324" s="10"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="14"/>
+      <c r="A325" s="10"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="14"/>
+      <c r="A326" s="10"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="14"/>
+      <c r="A327" s="10"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="14"/>
+      <c r="A328" s="10"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="14"/>
+      <c r="A329" s="10"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="14"/>
+      <c r="A330" s="10"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="14"/>
+      <c r="A331" s="10"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="14"/>
+      <c r="A332" s="10"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="14"/>
+      <c r="A333" s="10"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="14"/>
+      <c r="A334" s="10"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="14"/>
+      <c r="A335" s="10"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="14"/>
+      <c r="A336" s="10"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="14"/>
+      <c r="A337" s="10"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="14"/>
+      <c r="A338" s="10"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="14"/>
+      <c r="A339" s="10"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="14"/>
+      <c r="A340" s="10"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="14"/>
+      <c r="A341" s="10"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="14"/>
+      <c r="A342" s="10"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="14"/>
+      <c r="A343" s="10"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="14"/>
+      <c r="A344" s="10"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="14"/>
+      <c r="A345" s="10"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="14"/>
+      <c r="A346" s="10"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="14"/>
+      <c r="A347" s="10"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="14"/>
+      <c r="A348" s="10"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="14"/>
+      <c r="A349" s="10"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="14"/>
+      <c r="A350" s="10"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="14"/>
+      <c r="A351" s="10"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="14"/>
+      <c r="A352" s="10"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="14"/>
+      <c r="A353" s="10"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="14"/>
+      <c r="A354" s="10"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="14"/>
+      <c r="A355" s="10"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="14"/>
+      <c r="A356" s="10"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="14"/>
+      <c r="A357" s="10"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="14"/>
+      <c r="A358" s="10"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="14"/>
+      <c r="A359" s="10"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="14"/>
+      <c r="A360" s="10"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="14"/>
+      <c r="A361" s="10"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="14"/>
+      <c r="A362" s="10"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="14"/>
+      <c r="A363" s="10"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="14"/>
+      <c r="A364" s="10"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="14"/>
+      <c r="A365" s="10"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="14"/>
+      <c r="A366" s="10"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="14"/>
+      <c r="A367" s="10"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="14"/>
+      <c r="A368" s="10"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="14"/>
+      <c r="A369" s="10"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="14"/>
+      <c r="A370" s="10"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="14"/>
+      <c r="A371" s="10"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="14"/>
+      <c r="A372" s="10"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="14"/>
+      <c r="A373" s="10"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="14"/>
+      <c r="A374" s="10"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="14"/>
+      <c r="A375" s="10"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="14"/>
+      <c r="A376" s="10"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="14"/>
+      <c r="A377" s="10"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="14"/>
+      <c r="A378" s="10"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="14"/>
+      <c r="A379" s="10"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="14"/>
+      <c r="A380" s="10"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="14"/>
+      <c r="A381" s="10"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="14"/>
+      <c r="A382" s="10"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="14"/>
+      <c r="A383" s="10"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="14"/>
+      <c r="A384" s="10"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="14"/>
+      <c r="A385" s="10"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="14"/>
+      <c r="A386" s="10"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="14"/>
+      <c r="A387" s="10"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="14"/>
+      <c r="A388" s="10"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="14"/>
+      <c r="A389" s="10"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="14"/>
+      <c r="A390" s="10"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="14"/>
+      <c r="A391" s="10"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="14"/>
+      <c r="A392" s="10"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="14"/>
+      <c r="A393" s="10"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="14"/>
+      <c r="A394" s="10"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="14"/>
+      <c r="A395" s="10"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="14"/>
+      <c r="A396" s="10"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="14"/>
+      <c r="A397" s="10"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="14"/>
+      <c r="A398" s="10"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="14"/>
+      <c r="A399" s="10"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="14"/>
+      <c r="A400" s="10"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="14"/>
+      <c r="A401" s="10"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="14"/>
+      <c r="A402" s="10"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="14"/>
+      <c r="A403" s="10"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="14"/>
+      <c r="A404" s="10"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="14"/>
+      <c r="A405" s="10"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="14"/>
+      <c r="A406" s="10"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="14"/>
+      <c r="A407" s="10"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="14"/>
+      <c r="A408" s="10"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="14"/>
+      <c r="A409" s="10"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="14"/>
+      <c r="A410" s="10"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="14"/>
+      <c r="A411" s="10"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="14"/>
+      <c r="A412" s="10"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="14"/>
+      <c r="A413" s="10"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="14"/>
+      <c r="A414" s="10"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="14"/>
+      <c r="A415" s="10"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="14"/>
+      <c r="A416" s="10"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="14"/>
+      <c r="A417" s="10"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="14"/>
+      <c r="A418" s="10"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="14"/>
+      <c r="A419" s="10"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="14"/>
+      <c r="A420" s="10"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="14"/>
+      <c r="A421" s="10"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="14"/>
+      <c r="A422" s="10"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="14"/>
+      <c r="A423" s="10"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="14"/>
+      <c r="A424" s="10"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="14"/>
+      <c r="A425" s="10"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="14"/>
+      <c r="A426" s="10"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="14"/>
+      <c r="A427" s="10"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="14"/>
+      <c r="A428" s="10"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="14"/>
+      <c r="A429" s="10"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="14"/>
+      <c r="A430" s="10"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="14"/>
+      <c r="A431" s="10"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="14"/>
+      <c r="A432" s="10"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="14"/>
+      <c r="A433" s="10"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="14"/>
+      <c r="A434" s="10"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="14"/>
+      <c r="A435" s="10"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="14"/>
+      <c r="A436" s="10"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="14"/>
+      <c r="A437" s="10"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="14"/>
+      <c r="A438" s="10"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="14"/>
+      <c r="A439" s="10"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="14"/>
+      <c r="A440" s="10"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="14"/>
+      <c r="A441" s="10"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="14"/>
+      <c r="A442" s="10"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="14"/>
+      <c r="A443" s="10"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="14"/>
+      <c r="A444" s="10"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="14"/>
+      <c r="A445" s="10"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="14"/>
+      <c r="A446" s="10"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="14"/>
+      <c r="A447" s="10"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="14"/>
+      <c r="A448" s="10"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="14"/>
+      <c r="A449" s="10"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="14"/>
+      <c r="A450" s="10"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="14"/>
+      <c r="A451" s="10"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="14"/>
+      <c r="A452" s="10"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="14"/>
+      <c r="A453" s="10"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="14"/>
+      <c r="A454" s="10"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="14"/>
+      <c r="A455" s="10"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="14"/>
+      <c r="A456" s="10"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="14"/>
+      <c r="A457" s="10"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="14"/>
+      <c r="A458" s="10"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="14"/>
+      <c r="A459" s="10"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="14"/>
+      <c r="A460" s="10"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="14"/>
+      <c r="A461" s="10"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="14"/>
+      <c r="A462" s="10"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="14"/>
+      <c r="A463" s="10"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="14"/>
+      <c r="A464" s="10"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="14"/>
+      <c r="A465" s="10"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="14"/>
+      <c r="A466" s="10"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="14"/>
+      <c r="A467" s="10"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="14"/>
+      <c r="A468" s="10"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="14"/>
+      <c r="A469" s="10"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="14"/>
+      <c r="A470" s="10"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="14"/>
+      <c r="A471" s="10"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="14"/>
+      <c r="A472" s="10"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="14"/>
+      <c r="A473" s="10"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="14"/>
+      <c r="A474" s="10"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="14"/>
+      <c r="A475" s="10"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="14"/>
+      <c r="A476" s="10"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="14"/>
+      <c r="A477" s="10"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="14"/>
+      <c r="A478" s="10"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="14"/>
+      <c r="A479" s="10"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="14"/>
+      <c r="A480" s="10"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="14"/>
+      <c r="A481" s="10"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="14"/>
+      <c r="A482" s="10"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="14"/>
+      <c r="A483" s="10"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="14"/>
+      <c r="A484" s="10"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="14"/>
+      <c r="A485" s="10"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="14"/>
+      <c r="A486" s="10"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="14"/>
+      <c r="A487" s="10"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="14"/>
+      <c r="A488" s="10"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="14"/>
+      <c r="A489" s="10"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="14"/>
+      <c r="A490" s="10"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="14"/>
+      <c r="A491" s="10"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="14"/>
+      <c r="A492" s="10"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="14"/>
+      <c r="A493" s="10"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="14"/>
+      <c r="A494" s="10"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="14"/>
+      <c r="A495" s="10"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="14"/>
+      <c r="A496" s="10"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="14"/>
+      <c r="A497" s="10"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="14"/>
+      <c r="A498" s="10"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="14"/>
+      <c r="A499" s="10"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="14"/>
+      <c r="A500" s="10"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="14"/>
+      <c r="A501" s="10"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="14"/>
+      <c r="A502" s="10"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="14"/>
+      <c r="A503" s="10"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="14"/>
+      <c r="A504" s="10"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="14"/>
+      <c r="A505" s="10"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="14"/>
+      <c r="A506" s="10"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="14"/>
+      <c r="A507" s="10"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="14"/>
+      <c r="A508" s="10"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="14"/>
+      <c r="A509" s="10"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="14"/>
+      <c r="A510" s="10"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="14"/>
+      <c r="A511" s="10"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="14"/>
+      <c r="A512" s="10"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="14"/>
+      <c r="A513" s="10"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="14"/>
+      <c r="A514" s="10"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="14"/>
+      <c r="A515" s="10"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="14"/>
+      <c r="A516" s="10"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="14"/>
+      <c r="A517" s="10"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="14"/>
+      <c r="A518" s="10"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="14"/>
+      <c r="A519" s="10"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="14"/>
+      <c r="A520" s="10"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="14"/>
+      <c r="A521" s="10"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="14"/>
+      <c r="A522" s="10"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="14"/>
+      <c r="A523" s="10"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="14"/>
+      <c r="A524" s="10"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="14"/>
+      <c r="A525" s="10"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="14"/>
+      <c r="A526" s="10"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="14"/>
+      <c r="A527" s="10"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="14"/>
+      <c r="A528" s="10"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="14"/>
+      <c r="A529" s="10"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="14"/>
+      <c r="A530" s="10"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="14"/>
+      <c r="A531" s="10"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="14"/>
+      <c r="A532" s="10"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="14"/>
+      <c r="A533" s="10"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="14"/>
+      <c r="A534" s="10"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="14"/>
+      <c r="A535" s="10"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="14"/>
+      <c r="A536" s="10"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="14"/>
+      <c r="A537" s="10"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="14"/>
+      <c r="A538" s="10"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="14"/>
+      <c r="A539" s="10"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="14"/>
+      <c r="A540" s="10"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="14"/>
+      <c r="A541" s="10"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="14"/>
+      <c r="A542" s="10"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="14"/>
+      <c r="A543" s="10"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="14"/>
+      <c r="A544" s="10"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="14"/>
+      <c r="A545" s="10"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="14"/>
+      <c r="A546" s="10"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="14"/>
+      <c r="A547" s="10"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="14"/>
+      <c r="A548" s="10"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="14"/>
+      <c r="A549" s="10"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="14"/>
+      <c r="A550" s="10"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="14"/>
+      <c r="A551" s="10"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="14"/>
+      <c r="A552" s="10"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="14"/>
+      <c r="A553" s="10"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="14"/>
+      <c r="A554" s="10"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="14"/>
+      <c r="A555" s="10"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="14"/>
+      <c r="A556" s="10"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="14"/>
+      <c r="A557" s="10"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="14"/>
+      <c r="A558" s="10"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="14"/>
+      <c r="A559" s="10"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="14"/>
+      <c r="A560" s="10"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="14"/>
+      <c r="A561" s="10"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="14"/>
+      <c r="A562" s="10"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="14"/>
+      <c r="A563" s="10"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="14"/>
+      <c r="A564" s="10"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="14"/>
+      <c r="A565" s="10"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="14"/>
+      <c r="A566" s="10"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="14"/>
+      <c r="A567" s="10"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="14"/>
+      <c r="A568" s="10"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="14"/>
+      <c r="A569" s="10"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="14"/>
+      <c r="A570" s="10"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="14"/>
+      <c r="A571" s="10"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="14"/>
+      <c r="A572" s="10"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="14"/>
+      <c r="A573" s="10"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="14"/>
+      <c r="A574" s="10"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="14"/>
+      <c r="A575" s="10"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="14"/>
+      <c r="A576" s="10"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="14"/>
+      <c r="A577" s="10"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="14"/>
+      <c r="A578" s="10"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="14"/>
+      <c r="A579" s="10"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="14"/>
+      <c r="A580" s="10"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="14"/>
+      <c r="A581" s="10"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="14"/>
+      <c r="A582" s="10"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="14"/>
+      <c r="A583" s="10"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="14"/>
+      <c r="A584" s="10"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="14"/>
+      <c r="A585" s="10"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="14"/>
+      <c r="A586" s="10"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="14"/>
+      <c r="A587" s="10"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="14"/>
+      <c r="A588" s="10"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="14"/>
+      <c r="A589" s="10"/>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="14"/>
+      <c r="A590" s="10"/>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="14"/>
+      <c r="A591" s="10"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="14"/>
+      <c r="A592" s="10"/>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="14"/>
+      <c r="A593" s="10"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="14"/>
+      <c r="A594" s="10"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="14"/>
+      <c r="A595" s="10"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="14"/>
+      <c r="A596" s="10"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="14"/>
+      <c r="A597" s="10"/>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="14"/>
+      <c r="A598" s="10"/>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="14"/>
+      <c r="A599" s="10"/>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="14"/>
+      <c r="A600" s="10"/>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="14"/>
+      <c r="A601" s="10"/>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="14"/>
+      <c r="A602" s="10"/>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="14"/>
+      <c r="A603" s="10"/>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="14"/>
+      <c r="A604" s="10"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="14"/>
+      <c r="A605" s="10"/>
     </row>
     <row r="606" spans="1:1">
-      <c r="A606" s="14"/>
+      <c r="A606" s="10"/>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="14"/>
+      <c r="A607" s="10"/>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="14"/>
+      <c r="A608" s="10"/>
     </row>
     <row r="609" spans="1:1">
-      <c r="A609" s="14"/>
+      <c r="A609" s="10"/>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="14"/>
+      <c r="A610" s="10"/>
     </row>
     <row r="611" spans="1:1">
-      <c r="A611" s="14"/>
+      <c r="A611" s="10"/>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="14"/>
+      <c r="A612" s="10"/>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="14"/>
+      <c r="A613" s="10"/>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" s="14"/>
+      <c r="A614" s="10"/>
     </row>
     <row r="615" spans="1:1">
-      <c r="A615" s="14"/>
+      <c r="A615" s="10"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="14"/>
+      <c r="A616" s="10"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="14"/>
+      <c r="A617" s="10"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="14"/>
+      <c r="A618" s="10"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="14"/>
+      <c r="A619" s="10"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="14"/>
+      <c r="A620" s="10"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="14"/>
+      <c r="A621" s="10"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="14"/>
+      <c r="A622" s="10"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="14"/>
+      <c r="A623" s="10"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="14"/>
+      <c r="A624" s="10"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="14"/>
+      <c r="A625" s="10"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="14"/>
+      <c r="A626" s="10"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="14"/>
+      <c r="A627" s="10"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="14"/>
+      <c r="A628" s="10"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="14"/>
+      <c r="A629" s="10"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="14"/>
+      <c r="A630" s="10"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="14"/>
+      <c r="A631" s="10"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="14"/>
+      <c r="A632" s="10"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="14"/>
+      <c r="A633" s="10"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="14"/>
+      <c r="A634" s="10"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="14"/>
+      <c r="A635" s="10"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="14"/>
+      <c r="A636" s="10"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="14"/>
+      <c r="A637" s="10"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="14"/>
+      <c r="A638" s="10"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="14"/>
+      <c r="A639" s="10"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="14"/>
+      <c r="A640" s="10"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="14"/>
+      <c r="A641" s="10"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="14"/>
+      <c r="A642" s="10"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="14"/>
+      <c r="A643" s="10"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="14"/>
+      <c r="A644" s="10"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="14"/>
+      <c r="A645" s="10"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="14"/>
+      <c r="A646" s="10"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="14"/>
+      <c r="A647" s="10"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="14"/>
+      <c r="A648" s="10"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="14"/>
+      <c r="A649" s="10"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="14"/>
+      <c r="A650" s="10"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="14"/>
+      <c r="A651" s="10"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="14"/>
+      <c r="A652" s="10"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="14"/>
+      <c r="A653" s="10"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="14"/>
+      <c r="A654" s="10"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="14"/>
+      <c r="A655" s="10"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="14"/>
+      <c r="A656" s="10"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="14"/>
+      <c r="A657" s="10"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="14"/>
+      <c r="A658" s="10"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="14"/>
+      <c r="A659" s="10"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="14"/>
+      <c r="A660" s="10"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="14"/>
+      <c r="A661" s="10"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="14"/>
+      <c r="A662" s="10"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="14"/>
+      <c r="A663" s="10"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="14"/>
+      <c r="A664" s="10"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="14"/>
+      <c r="A665" s="10"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="14"/>
+      <c r="A666" s="10"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="14"/>
+      <c r="A667" s="10"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="14"/>
+      <c r="A668" s="10"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="14"/>
+      <c r="A669" s="10"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="14"/>
+      <c r="A670" s="10"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="14"/>
+      <c r="A671" s="10"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="14"/>
+      <c r="A672" s="10"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="14"/>
+      <c r="A673" s="10"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="14"/>
+      <c r="A674" s="10"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="14"/>
+      <c r="A675" s="10"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="14"/>
+      <c r="A676" s="10"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="14"/>
+      <c r="A677" s="10"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="14"/>
+      <c r="A678" s="10"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="14"/>
+      <c r="A679" s="10"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="14"/>
+      <c r="A680" s="10"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="14"/>
+      <c r="A681" s="10"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="14"/>
+      <c r="A682" s="10"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="14"/>
+      <c r="A683" s="10"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="14"/>
+      <c r="A684" s="10"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="14"/>
+      <c r="A685" s="10"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="14"/>
+      <c r="A686" s="10"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="14"/>
+      <c r="A687" s="10"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="14"/>
+      <c r="A688" s="10"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="14"/>
+      <c r="A689" s="10"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="14"/>
+      <c r="A690" s="10"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="14"/>
+      <c r="A691" s="10"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="14"/>
+      <c r="A692" s="10"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="14"/>
+      <c r="A693" s="10"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="14"/>
+      <c r="A694" s="10"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="14"/>
+      <c r="A695" s="10"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="14"/>
+      <c r="A696" s="10"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="14"/>
+      <c r="A697" s="10"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="14"/>
+      <c r="A698" s="10"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="14"/>
+      <c r="A699" s="10"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="14"/>
+      <c r="A700" s="10"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="14"/>
+      <c r="A701" s="10"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="14"/>
+      <c r="A702" s="10"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="14"/>
+      <c r="A703" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
